--- a/data/trans_bre/P15A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P15A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,91%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-7,33; 2,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 5,36</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; -0,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 1,22</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-86,05; 312,54</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,57; 154,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 0,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 4,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 2,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,19; 35,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 462,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,92; 183,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,36; 152,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,91; 11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,73; 65,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,41; 27,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,36; 100,93</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,8%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 2,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 1,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,91; 91,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,96; 105,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,31; 124,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; 213,26</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 0,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 2,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 1,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,11; 12,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,54; 11,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,37; 96,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,61; 134,52</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; -4,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,15; 26,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,35; 30,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 66,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-47,91%</t>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,44</t>
+          <t>-2,81; 0,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,36</t>
+          <t>-0,29; 3,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,68</t>
+          <t>-1,31; 2,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 1,22</t>
+          <t>-2,16; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,59; 35,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-86,05; 312,54</t>
+          <t>-16,64; 239,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,84; 135,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-93,57; 154,15</t>
+          <t>-48,45; 97,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,8%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>121,26%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>-28,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>27,85%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,71</t>
+          <t>-3,28; 0,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,1</t>
+          <t>-1,76; 1,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,15</t>
+          <t>-2,45; 0,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,05</t>
+          <t>-1,03; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,19; 35,51</t>
+          <t>-57,91; 11,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 462,14</t>
+          <t>-46,73; 65,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 183,1</t>
+          <t>-62,41; 27,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 152,19</t>
+          <t>-35,32; 205,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,63%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>29,75%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,26</t>
+          <t>-1,96; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,34</t>
+          <t>-1,53; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,63</t>
+          <t>-1,44; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,91</t>
+          <t>-1,17; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 11,23</t>
+          <t>-43,91; 91,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 65,47</t>
+          <t>-45,96; 105,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 27,7</t>
+          <t>-67,31; 124,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 100,93</t>
+          <t>-42,75; 185,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-37,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>16,77%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,13</t>
+          <t>-2,86; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,89</t>
+          <t>-2,93; 0,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,04</t>
+          <t>-1,12; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,43</t>
+          <t>-0,87; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 91,63</t>
+          <t>-65,11; 12,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 105,91</t>
+          <t>-63,54; 11,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 124,26</t>
+          <t>-30,37; 96,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 213,26</t>
+          <t>-31,87; 119,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,25</t>
+          <t>-1,83; -0,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,23</t>
+          <t>-0,96; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,06</t>
+          <t>-0,9; 0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,58</t>
+          <t>-0,42; 1,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-65,11; 12,29</t>
+          <t>-43,63; -4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 11,38</t>
+          <t>-28,15; 26,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 96,05</t>
+          <t>-30,35; 30,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 134,52</t>
+          <t>-17,1; 71,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-26,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-3,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-5,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; -0,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 0,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 0,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-43,63; -4,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-28,15; 26,38</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-30,35; 30,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 66,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P15A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Habitat-trans_bre.xlsx
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,75</t>
+          <t>-2,76; 0,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,36</t>
+          <t>-0,21; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,27 +683,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,66</t>
+          <t>-1,78; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,59; 35,48</t>
+          <t>-62,74; 26,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 239,94</t>
+          <t>-12,58; 257,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 135,7</t>
+          <t>-41,43; 134,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 97,79</t>
+          <t>-46,34; 111,57</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,26</t>
+          <t>-3,2; 0,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,34</t>
+          <t>-1,71; 1,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,63</t>
+          <t>-2,52; 0,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,53</t>
+          <t>-1,0; 2,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,91; 11,23</t>
+          <t>-57,54; 19,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 65,47</t>
+          <t>-44,5; 66,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 27,7</t>
+          <t>-61,77; 24,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 205,31</t>
+          <t>-32,34; 175,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,13</t>
+          <t>-2,01; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,89</t>
+          <t>-1,57; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,04</t>
+          <t>-1,56; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,05</t>
+          <t>-1,26; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 91,63</t>
+          <t>-45,62; 70,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 105,91</t>
+          <t>-47,15; 102,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 124,26</t>
+          <t>-67,61; 96,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 185,86</t>
+          <t>-50,47; 172,1</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,25</t>
+          <t>-3,01; 0,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,23</t>
+          <t>-3,17; 0,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,06</t>
+          <t>-1,31; 1,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,41</t>
+          <t>-0,94; 1,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,11; 12,29</t>
+          <t>-64,81; 9,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 11,38</t>
+          <t>-65,97; 15,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 96,05</t>
+          <t>-35,23; 91,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 119,78</t>
+          <t>-36,66; 109,01</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,18</t>
+          <t>-1,88; -0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,65</t>
+          <t>-0,93; 0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,66</t>
+          <t>-0,92; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,21</t>
+          <t>-0,47; 1,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -4,37</t>
+          <t>-44,11; -4,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 26,38</t>
+          <t>-28,67; 30,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 30,67</t>
+          <t>-30,78; 29,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 71,91</t>
+          <t>-17,97; 72,31</t>
         </is>
       </c>
     </row>
